--- a/repswitch_V1L2.xlsx
+++ b/repswitch_V1L2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC7F32-17E5-43AB-AA76-3AB10D75B6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4742EE-056B-4D8D-8897-2E56CDDE0A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="600" windowWidth="11028" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="143">
   <si>
     <t>image</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>guante</t>
+  </si>
+  <si>
+    <t>fresa</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -998,13 +1007,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <charset val="161"/>
@@ -1014,6 +1016,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1042,7 +1051,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D03F5DA0-A2D9-4160-9F3D-B6BDDB772228}" name="Table223" displayName="Table223" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D03F5DA0-A2D9-4160-9F3D-B6BDDB772228}" name="Table223" displayName="Table223" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <autoFilter ref="A1:Q409" xr:uid="{D03F5DA0-A2D9-4160-9F3D-B6BDDB772228}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{E6A69356-46E1-4D4D-85CE-9B0D7BAAF715}" name="image" dataDxfId="16"/>
@@ -1354,13 +1363,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAF0976-FE9F-4A1F-BFA5-855DC336A52A}">
-  <dimension ref="A1:Q409"/>
+  <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -2345,10 +2357,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
@@ -2398,10 +2410,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
@@ -3636,10 +3648,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -6940,10 +6952,10 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>1</v>
@@ -6993,10 +7005,10 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>1</v>
@@ -8182,10 +8194,10 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>1</v>
@@ -12622,10 +12634,10 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>1</v>
@@ -12675,10 +12687,10 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>2</v>
@@ -13917,10 +13929,10 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>2</v>
@@ -17790,10 +17802,10 @@
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>2</v>
@@ -17843,10 +17855,10 @@
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>1</v>
@@ -19236,10 +19248,10 @@
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>1</v>
@@ -22477,6 +22489,11 @@
       </c>
       <c r="Q409" s="15">
         <v>102</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/repswitch_V1L2.xlsx
+++ b/repswitch_V1L2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4742EE-056B-4D8D-8897-2E56CDDE0A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8291A8-9868-43BA-9F04-4F7CE88CEBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="600" windowWidth="11028" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="600" windowWidth="10596" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAF0976-FE9F-4A1F-BFA5-855DC336A52A}">
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/repswitch_V1L2.xlsx
+++ b/repswitch_V1L2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8291A8-9868-43BA-9F04-4F7CE88CEBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B080853-228A-4A68-9CFE-8DE3F7C36DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="600" windowWidth="10596" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="142">
   <si>
     <t>image</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_381.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1007,6 +1004,13 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <charset val="161"/>
@@ -1016,13 +1020,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1051,26 +1048,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D03F5DA0-A2D9-4160-9F3D-B6BDDB772228}" name="Table223" displayName="Table223" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
-  <autoFilter ref="A1:Q409" xr:uid="{D03F5DA0-A2D9-4160-9F3D-B6BDDB772228}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4A754F2-FD40-4B75-A900-16680AA6FAD0}" name="Table2232" displayName="Table2232" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
+  <autoFilter ref="A1:Q409" xr:uid="{B4A754F2-FD40-4B75-A900-16680AA6FAD0}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{E6A69356-46E1-4D4D-85CE-9B0D7BAAF715}" name="image" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{DC5DC41D-E18C-4E1A-9171-966DF44C1BDE}" name="correctAns" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{D3FC1B15-9261-4459-AB4C-4E2CE8EB6CED}" name="respModal" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{9E646F12-3D57-435E-85B0-FF08C8594A00}" name="frameColor" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{210974BF-0C26-4B08-B380-C1E4A2DA7E93}" name="repSwitch" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{FA7C5040-3FDB-4EAD-994F-959CE82AF896}" name="sequence" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{D1DC29FC-37FD-4C7B-9F37-079C761311C9}" name="target" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{EA6D5134-3E30-4ECF-8D35-09689547B915}" name="set" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{C6AFBEA5-40A4-4F17-89A5-D2D9DA436BD6}" name="block" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{6B243BF7-78F1-41B5-91B6-CE2B36173B5C}" name="list" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{9F76A08F-93AA-4295-88AE-001C4740C0E6}" name="exp_version" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{016CDBB3-6EF5-45B5-B434-BF03C6D67486}" name="stimulus" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{BED72A8C-595C-41F2-AAC9-21C1DCF88DDE}" name="baseline" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{51CE275B-1FDF-4D5F-9EA2-072F5D060E5F}" name="baseline_condition" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{C261F74A-6784-48A7-B81E-913726FC182E}" name="trial" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{94EF2B4F-8822-4CF1-B3CF-DBD9FDF534B4}" name="psychopy_trial" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{5393CDE9-E038-4B3B-B3EF-7E2BA2F34E6A}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C742E1B7-AE35-4FC6-8959-ECD87E6C09A1}" name="image" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A82F759B-4E2A-469F-B27E-DE010F715E19}" name="correctAns" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{22D170A9-DE8C-4B73-BC61-9F12F998114E}" name="respModal" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{DF53A5D3-F504-4A43-990E-01EE79FED5E6}" name="frameColor" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{19BDFA7C-831B-4EFB-A0D2-21D541C77D78}" name="repSwitch" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{21B79AF7-40B0-4AC3-BA26-A653F81AFB85}" name="sequence" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{544F6E23-1B93-4AEC-95F9-9D644639FE79}" name="target" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{746EC838-54C5-4421-B0BA-1306F823C5B8}" name="set" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{16F634B8-97C2-463B-8D97-FF4ABE95D383}" name="block" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{C3009413-85BE-4CD9-B524-AEFEBDC5E3F7}" name="list" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{20E4ACEE-96F7-477E-8DC8-960C4C16FC82}" name="exp_version" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{670EC57D-9956-4CE3-A8B8-DC4229AF9814}" name="stimulus" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{C960D666-E286-4F80-8683-C00418FC5073}" name="baseline" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{FC3F98BA-88EE-46C7-A394-2EB8A0A5AA9F}" name="baseline_condition" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{8D12A644-2D26-48C4-B5E7-054BC2CB0377}" name="trial" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{3F7D0ADA-15DE-4D5E-8408-BDBE0384D171}" name="psychopy_trial" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{549ED4A4-A7D9-4823-94F1-D9B0B9797CE5}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1362,17 +1359,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAF0976-FE9F-4A1F-BFA5-855DC336A52A}">
-  <dimension ref="A1:Q410"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B016DB4B-87B2-4DD8-86A1-EC57913B1677}">
+  <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -22489,11 +22483,6 @@
       </c>
       <c r="Q409" s="15">
         <v>102</v>
-      </c>
-    </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/repswitch_V1L2.xlsx
+++ b/repswitch_V1L2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B080853-228A-4A68-9CFE-8DE3F7C36DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9512E8-DB2A-4414-8E6F-503BE86605C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>columna</t>
-  </si>
-  <si>
-    <t>trial</t>
   </si>
   <si>
     <t>psychopy_trial</t>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t>trial_no</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1004,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <charset val="161"/>
@@ -1020,6 +1013,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1048,7 +1048,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4A754F2-FD40-4B75-A900-16680AA6FAD0}" name="Table2232" displayName="Table2232" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4A754F2-FD40-4B75-A900-16680AA6FAD0}" name="Table2232" displayName="Table2232" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <autoFilter ref="A1:Q409" xr:uid="{B4A754F2-FD40-4B75-A900-16680AA6FAD0}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{C742E1B7-AE35-4FC6-8959-ECD87E6C09A1}" name="image" dataDxfId="16"/>
@@ -1065,7 +1065,7 @@
     <tableColumn id="9" xr3:uid="{670EC57D-9956-4CE3-A8B8-DC4229AF9814}" name="stimulus" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{C960D666-E286-4F80-8683-C00418FC5073}" name="baseline" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{FC3F98BA-88EE-46C7-A394-2EB8A0A5AA9F}" name="baseline_condition" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{8D12A644-2D26-48C4-B5E7-054BC2CB0377}" name="trial" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{8D12A644-2D26-48C4-B5E7-054BC2CB0377}" name="trial_no" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{3F7D0ADA-15DE-4D5E-8408-BDBE0384D171}" name="psychopy_trial" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{549ED4A4-A7D9-4823-94F1-D9B0B9797CE5}" name="Column1" dataDxfId="0"/>
   </tableColumns>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B016DB4B-87B2-4DD8-86A1-EC57913B1677}">
   <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,36 +1394,36 @@
         <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="O1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="Q1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>55</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M2" s="9">
         <v>0</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>52</v>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M3" s="9">
         <v>0</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>1</v>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>2</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>1</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>1</v>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>2</v>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>2</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>2</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>1</v>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>2</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>1</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>1</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>2</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>2</v>
@@ -2661,10 +2661,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>2</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>1</v>
@@ -2765,10 +2765,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>1</v>
@@ -2816,10 +2816,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>2</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>2</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>2</v>
@@ -2969,10 +2969,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1</v>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>2</v>
@@ -3073,10 +3073,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>2</v>
@@ -3124,10 +3124,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>2</v>
@@ -3175,10 +3175,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>1</v>
@@ -3226,10 +3226,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>1</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>1</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>2</v>
@@ -3383,10 +3383,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>2</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>2</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>1</v>
@@ -3538,10 +3538,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>1</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>1</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -3693,10 +3693,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>1</v>
@@ -3746,10 +3746,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>1</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>2</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>1</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>1</v>
@@ -3952,10 +3952,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>2</v>
@@ -4003,10 +4003,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -4054,10 +4054,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>2</v>
@@ -4107,10 +4107,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>1</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>1</v>
@@ -4209,10 +4209,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>1</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>2</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>2</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>1</v>
@@ -4417,10 +4417,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>2</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>1</v>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>1</v>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>2</v>
@@ -4623,10 +4623,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>1</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>1</v>
@@ -4727,10 +4727,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>1</v>
@@ -4778,10 +4778,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>2</v>
@@ -4829,10 +4829,10 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>1</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>2</v>
@@ -4933,10 +4933,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>2</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>2</v>
@@ -5035,10 +5035,10 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>1</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>2</v>
@@ -5141,10 +5141,10 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>2</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>1</v>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>2</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>2</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>1</v>
@@ -5396,10 +5396,10 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>2</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>1</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>1</v>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>1</v>
@@ -5604,10 +5604,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>2</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>1</v>
@@ -5706,10 +5706,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>1</v>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>2</v>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>2</v>
@@ -5861,10 +5861,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>1</v>
@@ -5912,10 +5912,10 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>2</v>
@@ -5965,10 +5965,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>1</v>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>1</v>
@@ -6069,10 +6069,10 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>2</v>
@@ -6120,10 +6120,10 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>1</v>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>1</v>
@@ -6224,10 +6224,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>2</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>56</v>
@@ -6308,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M96" s="6">
         <v>0</v>
@@ -6326,10 +6326,10 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>2</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>57</v>
@@ -6412,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M98" s="6">
         <v>0</v>
@@ -6430,10 +6430,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>2</v>
@@ -6483,10 +6483,10 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>2</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>2</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>53</v>
@@ -6620,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M102" s="6">
         <v>0</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>54</v>
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M103" s="20">
         <v>0</v>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>52</v>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M104" s="9">
         <v>0</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>53</v>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M105" s="6">
         <v>0</v>
@@ -6791,10 +6791,10 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>1</v>
@@ -6844,10 +6844,10 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>1</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>2</v>
@@ -6946,10 +6946,10 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>1</v>
@@ -6999,10 +6999,10 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>1</v>
@@ -7050,10 +7050,10 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>2</v>
@@ -7103,10 +7103,10 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>1</v>
@@ -7154,10 +7154,10 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>2</v>
@@ -7205,10 +7205,10 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>1</v>
@@ -7256,10 +7256,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>2</v>
@@ -7309,10 +7309,10 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>1</v>
@@ -7360,10 +7360,10 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>1</v>
@@ -7411,10 +7411,10 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>1</v>
@@ -7462,10 +7462,10 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>2</v>
@@ -7513,10 +7513,10 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>2</v>
@@ -7566,10 +7566,10 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>2</v>
@@ -7617,10 +7617,10 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>1</v>
@@ -7668,10 +7668,10 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>2</v>
@@ -7719,10 +7719,10 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>2</v>
@@ -7772,10 +7772,10 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>2</v>
@@ -7823,10 +7823,10 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>1</v>
@@ -7876,10 +7876,10 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>2</v>
@@ -7929,10 +7929,10 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>2</v>
@@ -7982,10 +7982,10 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>1</v>
@@ -8033,10 +8033,10 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>1</v>
@@ -8084,10 +8084,10 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>2</v>
@@ -8137,10 +8137,10 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>2</v>
@@ -8188,10 +8188,10 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>1</v>
@@ -8239,10 +8239,10 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>2</v>
@@ -8292,10 +8292,10 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>2</v>
@@ -8343,10 +8343,10 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>1</v>
@@ -8394,10 +8394,10 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>2</v>
@@ -8445,10 +8445,10 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>1</v>
@@ -8496,10 +8496,10 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>1</v>
@@ -8549,10 +8549,10 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>2</v>
@@ -8600,10 +8600,10 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>2</v>
@@ -8651,10 +8651,10 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>2</v>
@@ -8704,10 +8704,10 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>1</v>
@@ -8755,10 +8755,10 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>2</v>
@@ -8806,10 +8806,10 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>1</v>
@@ -8859,10 +8859,10 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>1</v>
@@ -8912,10 +8912,10 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>1</v>
@@ -8963,10 +8963,10 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>2</v>
@@ -9014,10 +9014,10 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>1</v>
@@ -9067,10 +9067,10 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>1</v>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>54</v>
@@ -9151,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="L151" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M151" s="6">
         <v>0</v>
@@ -9169,10 +9169,10 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>1</v>
@@ -9220,10 +9220,10 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>1</v>
@@ -9273,10 +9273,10 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B154" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
@@ -9324,10 +9324,10 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>2</v>
@@ -9375,10 +9375,10 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>1</v>
@@ -9426,7 +9426,7 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>55</v>
@@ -9459,7 +9459,7 @@
         <v>1</v>
       </c>
       <c r="L157" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M157" s="6">
         <v>0</v>
@@ -9477,10 +9477,10 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>1</v>
@@ -9530,10 +9530,10 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>2</v>
@@ -9581,10 +9581,10 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>2</v>
@@ -9634,10 +9634,10 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>2</v>
@@ -9687,10 +9687,10 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>1</v>
@@ -9738,10 +9738,10 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>1</v>
@@ -9789,10 +9789,10 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>2</v>
@@ -9840,10 +9840,10 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>1</v>
@@ -9893,10 +9893,10 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>1</v>
@@ -9944,10 +9944,10 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>2</v>
@@ -9995,10 +9995,10 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>1</v>
@@ -10048,10 +10048,10 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>1</v>
@@ -10101,10 +10101,10 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>1</v>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B171" s="16" t="s">
         <v>56</v>
@@ -10185,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M171" s="6">
         <v>0</v>
@@ -10203,10 +10203,10 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>1</v>
@@ -10254,10 +10254,10 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>2</v>
@@ -10305,10 +10305,10 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>1</v>
@@ -10356,10 +10356,10 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>2</v>
@@ -10409,10 +10409,10 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>2</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>1</v>
@@ -10511,10 +10511,10 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>2</v>
@@ -10564,10 +10564,10 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>2</v>
@@ -10617,10 +10617,10 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>2</v>
@@ -10668,10 +10668,10 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>1</v>
@@ -10719,10 +10719,10 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>2</v>
@@ -10772,10 +10772,10 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>2</v>
@@ -10823,10 +10823,10 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>2</v>
@@ -10874,10 +10874,10 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>1</v>
@@ -10925,10 +10925,10 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>1</v>
@@ -10978,10 +10978,10 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>2</v>
@@ -11029,10 +11029,10 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>1</v>
@@ -11082,10 +11082,10 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>1</v>
@@ -11133,10 +11133,10 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>1</v>
@@ -11186,10 +11186,10 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>2</v>
@@ -11237,10 +11237,10 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>1</v>
@@ -11288,10 +11288,10 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>2</v>
@@ -11339,10 +11339,10 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>2</v>
@@ -11392,10 +11392,10 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>1</v>
@@ -11443,10 +11443,10 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>1</v>
@@ -11494,10 +11494,10 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>1</v>
@@ -11545,7 +11545,7 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B198" s="16" t="s">
         <v>57</v>
@@ -11578,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M198" s="6">
         <v>0</v>
@@ -11596,10 +11596,10 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>1</v>
@@ -11647,10 +11647,10 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>1</v>
@@ -11698,10 +11698,10 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>2</v>
@@ -11749,10 +11749,10 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>2</v>
@@ -11800,10 +11800,10 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>2</v>
@@ -11851,10 +11851,10 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>1</v>
@@ -11902,10 +11902,10 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B205" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="B205" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>2</v>
@@ -11953,10 +11953,10 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>2</v>
@@ -12004,10 +12004,10 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>1</v>
@@ -12055,10 +12055,10 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>1</v>
@@ -12108,10 +12108,10 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>1</v>
@@ -12159,10 +12159,10 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>2</v>
@@ -12212,10 +12212,10 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>1</v>
@@ -12265,10 +12265,10 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>1</v>
@@ -12316,10 +12316,10 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>2</v>
@@ -12367,10 +12367,10 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>1</v>
@@ -12420,10 +12420,10 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>2</v>
@@ -12471,10 +12471,10 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>2</v>
@@ -12524,10 +12524,10 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>2</v>
@@ -12577,10 +12577,10 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>1</v>
@@ -12628,10 +12628,10 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>1</v>
@@ -12681,10 +12681,10 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>2</v>
@@ -12732,10 +12732,10 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>2</v>
@@ -12783,10 +12783,10 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>1</v>
@@ -12834,10 +12834,10 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>2</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>2</v>
@@ -12936,10 +12936,10 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>1</v>
@@ -12989,10 +12989,10 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>2</v>
@@ -13042,10 +13042,10 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>2</v>
@@ -13093,10 +13093,10 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>2</v>
@@ -13146,10 +13146,10 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>1</v>
@@ -13197,10 +13197,10 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>2</v>
@@ -13248,10 +13248,10 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>2</v>
@@ -13301,10 +13301,10 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>2</v>
@@ -13352,10 +13352,10 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>1</v>
@@ -13405,10 +13405,10 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>2</v>
@@ -13458,10 +13458,10 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>2</v>
@@ -13509,10 +13509,10 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>2</v>
@@ -13560,7 +13560,7 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B237" s="16" t="s">
         <v>56</v>
@@ -13593,7 +13593,7 @@
         <v>1</v>
       </c>
       <c r="L237" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M237" s="6">
         <v>0</v>
@@ -13611,10 +13611,10 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>2</v>
@@ -13664,10 +13664,10 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>2</v>
@@ -13717,10 +13717,10 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>1</v>
@@ -13768,10 +13768,10 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>1</v>
@@ -13819,10 +13819,10 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>1</v>
@@ -13872,10 +13872,10 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>2</v>
@@ -13923,10 +13923,10 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>2</v>
@@ -13974,10 +13974,10 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>2</v>
@@ -14027,10 +14027,10 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>1</v>
@@ -14078,10 +14078,10 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>1</v>
@@ -14129,10 +14129,10 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>1</v>
@@ -14180,10 +14180,10 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>2</v>
@@ -14231,10 +14231,10 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>1</v>
@@ -14284,10 +14284,10 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>1</v>
@@ -14335,7 +14335,7 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>55</v>
@@ -14368,7 +14368,7 @@
         <v>1</v>
       </c>
       <c r="L252" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M252" s="6">
         <v>0</v>
@@ -14386,10 +14386,10 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>1</v>
@@ -14437,10 +14437,10 @@
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>1</v>
@@ -14490,10 +14490,10 @@
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>2</v>
@@ -14541,7 +14541,7 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>57</v>
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="L256" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M256" s="2">
         <v>0</v>
@@ -14592,10 +14592,10 @@
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>2</v>
@@ -14643,10 +14643,10 @@
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>1</v>
@@ -14694,10 +14694,10 @@
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>1</v>
@@ -14745,10 +14745,10 @@
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>1</v>
@@ -14798,10 +14798,10 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>2</v>
@@ -14849,10 +14849,10 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>2</v>
@@ -14902,10 +14902,10 @@
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>2</v>
@@ -14955,10 +14955,10 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>1</v>
@@ -15006,10 +15006,10 @@
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>2</v>
@@ -15057,10 +15057,10 @@
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>1</v>
@@ -15110,10 +15110,10 @@
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>1</v>
@@ -15161,10 +15161,10 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>1</v>
@@ -15212,10 +15212,10 @@
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>2</v>
@@ -15265,10 +15265,10 @@
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>1</v>
@@ -15318,10 +15318,10 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>1</v>
@@ -15369,10 +15369,10 @@
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>1</v>
@@ -15422,10 +15422,10 @@
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>2</v>
@@ -15473,10 +15473,10 @@
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>1</v>
@@ -15524,10 +15524,10 @@
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>2</v>
@@ -15575,10 +15575,10 @@
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>2</v>
@@ -15626,10 +15626,10 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>2</v>
@@ -15677,10 +15677,10 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>1</v>
@@ -15728,10 +15728,10 @@
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>2</v>
@@ -15781,10 +15781,10 @@
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>2</v>
@@ -15832,10 +15832,10 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>2</v>
@@ -15885,7 +15885,7 @@
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B282" s="16" t="s">
         <v>52</v>
@@ -15918,7 +15918,7 @@
         <v>1</v>
       </c>
       <c r="L282" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M282" s="6">
         <v>0</v>
@@ -15936,10 +15936,10 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>1</v>
@@ -15989,10 +15989,10 @@
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>2</v>
@@ -16040,10 +16040,10 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>2</v>
@@ -16091,10 +16091,10 @@
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>2</v>
@@ -16144,10 +16144,10 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>1</v>
@@ -16195,10 +16195,10 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>2</v>
@@ -16246,10 +16246,10 @@
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>1</v>
@@ -16299,10 +16299,10 @@
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>1</v>
@@ -16350,10 +16350,10 @@
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>1</v>
@@ -16401,10 +16401,10 @@
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>2</v>
@@ -16452,10 +16452,10 @@
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>1</v>
@@ -16503,10 +16503,10 @@
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>2</v>
@@ -16556,10 +16556,10 @@
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>1</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B296" s="16" t="s">
         <v>53</v>
@@ -16640,7 +16640,7 @@
         <v>1</v>
       </c>
       <c r="L296" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M296" s="6">
         <v>0</v>
@@ -16658,10 +16658,10 @@
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>1</v>
@@ -16709,10 +16709,10 @@
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>1</v>
@@ -16762,10 +16762,10 @@
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>1</v>
@@ -16813,10 +16813,10 @@
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>2</v>
@@ -16866,10 +16866,10 @@
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>1</v>
@@ -16917,10 +16917,10 @@
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>1</v>
@@ -16970,10 +16970,10 @@
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>2</v>
@@ -17021,7 +17021,7 @@
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B304" s="16" t="s">
         <v>54</v>
@@ -17054,7 +17054,7 @@
         <v>1</v>
       </c>
       <c r="L304" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M304" s="6">
         <v>0</v>
@@ -17072,10 +17072,10 @@
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>2</v>
@@ -17123,10 +17123,10 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>2</v>
@@ -17176,10 +17176,10 @@
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B307" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="B307" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
@@ -17227,7 +17227,7 @@
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B308" s="16" t="s">
         <v>57</v>
@@ -17260,7 +17260,7 @@
         <v>1</v>
       </c>
       <c r="L308" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M308" s="9">
         <v>0</v>
@@ -17278,10 +17278,10 @@
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>1</v>
@@ -17331,10 +17331,10 @@
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>1</v>
@@ -17382,10 +17382,10 @@
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>2</v>
@@ -17433,10 +17433,10 @@
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>1</v>
@@ -17486,10 +17486,10 @@
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>1</v>
@@ -17537,7 +17537,7 @@
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B314" s="16" t="s">
         <v>56</v>
@@ -17570,7 +17570,7 @@
         <v>1</v>
       </c>
       <c r="L314" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M314" s="6">
         <v>0</v>
@@ -17588,10 +17588,10 @@
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>1</v>
@@ -17639,10 +17639,10 @@
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>1</v>
@@ -17692,10 +17692,10 @@
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>2</v>
@@ -17743,10 +17743,10 @@
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>2</v>
@@ -17796,10 +17796,10 @@
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>2</v>
@@ -17849,10 +17849,10 @@
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>1</v>
@@ -17900,10 +17900,10 @@
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>1</v>
@@ -17951,10 +17951,10 @@
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>2</v>
@@ -18002,10 +18002,10 @@
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>1</v>
@@ -18053,10 +18053,10 @@
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>2</v>
@@ -18106,10 +18106,10 @@
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>2</v>
@@ -18157,10 +18157,10 @@
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>1</v>
@@ -18210,10 +18210,10 @@
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>2</v>
@@ -18263,10 +18263,10 @@
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>2</v>
@@ -18314,10 +18314,10 @@
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>1</v>
@@ -18365,10 +18365,10 @@
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>2</v>
@@ -18416,10 +18416,10 @@
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>2</v>
@@ -18467,10 +18467,10 @@
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>1</v>
@@ -18518,10 +18518,10 @@
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>2</v>
@@ -18571,10 +18571,10 @@
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>2</v>
@@ -18622,10 +18622,10 @@
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>2</v>
@@ -18673,10 +18673,10 @@
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>1</v>
@@ -18724,10 +18724,10 @@
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>2</v>
@@ -18777,10 +18777,10 @@
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>2</v>
@@ -18828,10 +18828,10 @@
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>2</v>
@@ -18879,10 +18879,10 @@
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>1</v>
@@ -18930,10 +18930,10 @@
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>1</v>
@@ -18983,10 +18983,10 @@
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>1</v>
@@ -19036,10 +19036,10 @@
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>2</v>
@@ -19087,10 +19087,10 @@
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>2</v>
@@ -19140,10 +19140,10 @@
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>1</v>
@@ -19191,10 +19191,10 @@
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>2</v>
@@ -19242,10 +19242,10 @@
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>1</v>
@@ -19293,10 +19293,10 @@
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>2</v>
@@ -19344,10 +19344,10 @@
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>1</v>
@@ -19397,10 +19397,10 @@
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>1</v>
@@ -19448,10 +19448,10 @@
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>2</v>
@@ -19499,10 +19499,10 @@
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>1</v>
@@ -19552,10 +19552,10 @@
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>1</v>
@@ -19603,10 +19603,10 @@
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C354" s="6" t="s">
         <v>2</v>
@@ -19654,10 +19654,10 @@
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C355" s="6" t="s">
         <v>1</v>
@@ -19705,10 +19705,10 @@
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>1</v>
@@ -19756,10 +19756,10 @@
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>2</v>
@@ -19807,7 +19807,7 @@
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B358" s="19" t="s">
         <v>54</v>
@@ -19840,7 +19840,7 @@
         <v>1</v>
       </c>
       <c r="L358" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M358" s="20">
         <v>0</v>
@@ -19858,10 +19858,10 @@
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>2</v>
@@ -19909,10 +19909,10 @@
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>2</v>
@@ -19962,10 +19962,10 @@
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>1</v>
@@ -20013,10 +20013,10 @@
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>1</v>
@@ -20064,10 +20064,10 @@
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>1</v>
@@ -20117,10 +20117,10 @@
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>2</v>
@@ -20168,7 +20168,7 @@
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B365" s="16" t="s">
         <v>53</v>
@@ -20201,7 +20201,7 @@
         <v>1</v>
       </c>
       <c r="L365" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M365" s="6">
         <v>0</v>
@@ -20219,10 +20219,10 @@
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>2</v>
@@ -20270,10 +20270,10 @@
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>1</v>
@@ -20321,10 +20321,10 @@
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>2</v>
@@ -20372,10 +20372,10 @@
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>1</v>
@@ -20425,10 +20425,10 @@
     </row>
     <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>1</v>
@@ -20476,10 +20476,10 @@
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>1</v>
@@ -20527,10 +20527,10 @@
     </row>
     <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>2</v>
@@ -20578,10 +20578,10 @@
     </row>
     <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>1</v>
@@ -20631,10 +20631,10 @@
     </row>
     <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>1</v>
@@ -20682,10 +20682,10 @@
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>1</v>
@@ -20733,10 +20733,10 @@
     </row>
     <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>2</v>
@@ -20784,10 +20784,10 @@
     </row>
     <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B377" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>1</v>
@@ -20835,7 +20835,7 @@
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B378" s="16" t="s">
         <v>55</v>
@@ -20868,7 +20868,7 @@
         <v>1</v>
       </c>
       <c r="L378" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M378" s="6">
         <v>0</v>
@@ -20886,10 +20886,10 @@
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>2</v>
@@ -20939,10 +20939,10 @@
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B380" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>2</v>
@@ -20990,10 +20990,10 @@
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B381" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>1</v>
@@ -21041,10 +21041,10 @@
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>2</v>
@@ -21094,10 +21094,10 @@
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>2</v>
@@ -21145,10 +21145,10 @@
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>2</v>
@@ -21198,10 +21198,10 @@
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>1</v>
@@ -21249,10 +21249,10 @@
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>2</v>
@@ -21302,10 +21302,10 @@
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>2</v>
@@ -21353,10 +21353,10 @@
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B388" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>2</v>
@@ -21406,10 +21406,10 @@
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>1</v>
@@ -21457,10 +21457,10 @@
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>2</v>
@@ -21508,10 +21508,10 @@
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>1</v>
@@ -21561,10 +21561,10 @@
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B392" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>1</v>
@@ -21612,10 +21612,10 @@
     </row>
     <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>1</v>
@@ -21663,10 +21663,10 @@
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B394" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>2</v>
@@ -21714,10 +21714,10 @@
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B395" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>1</v>
@@ -21765,10 +21765,10 @@
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B396" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>2</v>
@@ -21818,10 +21818,10 @@
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B397" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>1</v>
@@ -21869,10 +21869,10 @@
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>2</v>
@@ -21920,10 +21920,10 @@
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B399" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>1</v>
@@ -21971,10 +21971,10 @@
     </row>
     <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B400" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C400" s="6" t="s">
         <v>1</v>
@@ -22024,10 +22024,10 @@
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B401" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C401" s="6" t="s">
         <v>1</v>
@@ -22075,10 +22075,10 @@
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>2</v>
@@ -22126,10 +22126,10 @@
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B403" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>1</v>
@@ -22179,10 +22179,10 @@
     </row>
     <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B404" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>1</v>
@@ -22232,10 +22232,10 @@
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>2</v>
@@ -22283,10 +22283,10 @@
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B406" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>2</v>
@@ -22334,10 +22334,10 @@
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>2</v>
@@ -22385,7 +22385,7 @@
     </row>
     <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B408" s="16" t="s">
         <v>52</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="L408" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M408" s="6">
         <v>0</v>
@@ -22436,10 +22436,10 @@
     </row>
     <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B409" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C409" s="6" t="s">
         <v>2</v>
